--- a/document/功能列表.xlsx
+++ b/document/功能列表.xlsx
@@ -7,17 +7,185 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="执法移动终端" sheetId="1" r:id="rId1"/>
+    <sheet name="后台支撑管理系统" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_Toc316225786" localSheetId="0">执法移动终端!#REF!</definedName>
+    <definedName name="_Toc346542765" localSheetId="0">执法移动终端!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>任务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制执法文书</t>
+  </si>
+  <si>
+    <t>采集执法证据</t>
+  </si>
+  <si>
+    <t>人员定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即拍即传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应急手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家资料库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险品属性库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一厂一档查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境质量查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽查考核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保专题图查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动应急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场执法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询、处理执法任务(如，现场执法任务、信访投诉处理任务等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执法人员对相关企业进行现场执法，编制执法文书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集图像、录音、视频等执法证据材料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看执法移动终端（执法人员）的地理位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时传输视频内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调阅各种应急预案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询环保应急专家个人信息、通讯联络、专长等信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询1300多种危险化学品的基本信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询污染源有关环境基础数据库中的各类信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询环境质量信息，包括水环境质量、空气环境质量、噪声环境质量查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询环保手册，如法律法规、作业指导书、工作程序、应急预案、案例知识库等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稽查考核包括任务指派、签署指示、查看位置、查看执法轨迹、查看任务完成情况等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看地图要素信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位系统包括污染源定位及人员定位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在移动终端上实现各类GIS专题图查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成服务器和客户端数据传输同步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +201,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -50,15 +241,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,12 +608,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" customHeight="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21" customHeight="1">
+      <c r="A12" s="6">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21" customHeight="1">
+      <c r="A13" s="6">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21" customHeight="1">
+      <c r="A17" s="6">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
